--- a/Лабораторная работа 18/laboratornaya_rabota_18/laboratornaya_rabota_18/bin/DebugForm1.xlsx
+++ b/Лабораторная работа 18/laboratornaya_rabota_18/laboratornaya_rabota_18/bin/DebugForm1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11D08D9C-8E27-43B7-B8FE-B3909C6951A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3504F57-A68F-4845-A332-644D47161E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{C185E508-7AC2-4D8D-81BD-F26F7501CBAC}"/>
+    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{067162F1-DD34-432B-B499-A4D073BDE381}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141B29B6-2A1F-4053-A00D-3FE1F289E1CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC9CC83-80F8-46AE-9DE0-9C7297B8E125}">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -769,7 +769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12791B7-86BD-4491-BCE4-F1E15F5C7017}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5338AF0-3E0E-4248-9CEE-E55863F6F587}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
